--- a/output/frequencies/VNM_children_2014.xlsx
+++ b/output/frequencies/VNM_children_2014.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="excl_bf_weighted" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cont_1223_bf_weighted" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mdd_ch_weighted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mmf_ch_weighted" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mad_ch_weighted" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -825,4 +829,1636 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cont_1223_bf</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>789.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Female</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>375.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Male</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>414.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>536.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>252.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Central Highlands</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Mekong River Delta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>North Central and Central Coast</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Northern Midlands and Mountain</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Red River Delta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Higher</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>133.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: None/ECE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Primary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Secondary</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>520.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>148.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Poorest</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>55</v>
+      </c>
+      <c r="C19" t="n">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Richest</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Khmer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Kinh and Hoa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>671.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mong</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Other/Missing</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Tay, Thai, Muong, Nung</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: NO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>607.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: YES</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>616.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mdd_ch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1127.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Female</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>527.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Male</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>599.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>790.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>337.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Central Highlands</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Mekong River Delta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>North Central and Central Coast</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>232.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Northern Midlands and Mountain</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Red River Delta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Higher</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: None/ECE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Primary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>139.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Secondary</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>741.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Poorest</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>247.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Richest</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>224.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Khmer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Kinh and Hoa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>948.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mong</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Other/Missing</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Tay, Thai, Muong, Nung</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: NO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>865.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: YES</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>254.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>873.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mmf_ch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1127.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Female</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>527.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Male</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>599.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>790.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>337.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Central Highlands</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Mekong River Delta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>North Central and Central Coast</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>232.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Northern Midlands and Mountain</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Red River Delta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Higher</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: None/ECE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Primary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>139.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Secondary</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>741.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Poorest</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>247.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Richest</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>224.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Khmer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Kinh and Hoa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>948.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mong</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Other/Missing</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Tay, Thai, Muong, Nung</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: NO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>865.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: YES</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>254.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>873.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mad_ch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1127.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Female</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>527.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Male</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>599.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>790.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>337.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Central Highlands</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Mekong River Delta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>North Central and Central Coast</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>232.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Northern Midlands and Mountain</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Red River Delta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Higher</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72</v>
+      </c>
+      <c r="C13" t="n">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: None/ECE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Primary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>139.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Mother Edu: Secondary</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>741.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Poorest</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>247.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Richest</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>224.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Khmer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Kinh and Hoa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>948.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mong</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Other/Missing</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Tay, Thai, Muong, Nung</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: NO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>865.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: YES</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>57</v>
+      </c>
+      <c r="C29" t="n">
+        <v>254.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>873.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>